--- a/data/Indicator list.xlsx
+++ b/data/Indicator list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kate/OneDrive/database.query/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB977F-2532-0B4C-B242-F9181FFAF997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68740C33-01DA-1A44-8468-87413B041AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="760" windowWidth="22380" windowHeight="16080" xr2:uid="{0350B573-E2EE-4347-B49F-BEB4A6CC783C}"/>
+    <workbookView xWindow="4640" yWindow="760" windowWidth="22380" windowHeight="16080" xr2:uid="{0350B573-E2EE-4347-B49F-BEB4A6CC783C}"/>
   </bookViews>
   <sheets>
     <sheet name="bench_idx_clean" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="454">
   <si>
     <t>cat</t>
   </si>
@@ -1468,6 +1468,15 @@
   </si>
   <si>
     <t>SL.TLF.CACT.FE.ZS</t>
+  </si>
+  <si>
+    <t>IRENA.REN.ENEG</t>
+  </si>
+  <si>
+    <t>IRENA</t>
+  </si>
+  <si>
+    <t>IRENA.ELE.GEN</t>
   </si>
 </sst>
 </file>
@@ -1884,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5976A1E-3A09-9C44-A682-795C0F9B2580}">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4137,10 +4146,10 @@
         <v>278</v>
       </c>
       <c r="D126" t="s">
-        <v>279</v>
+        <v>453</v>
       </c>
       <c r="E126" t="s">
-        <v>110</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -4299,10 +4308,10 @@
         <v>295</v>
       </c>
       <c r="D135" t="s">
-        <v>296</v>
+        <v>451</v>
       </c>
       <c r="E135" t="s">
-        <v>110</v>
+        <v>452</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -5356,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A7107-E59D-CF4A-808D-C63C164E77E8}">
   <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
